--- a/ig/nr-update/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/nr-update/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10972" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10972" uniqueCount="573">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T13:30:52+00:00</t>
+    <t>2024-02-07T13:43:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1470,7 +1470,7 @@
     <t>Bundle.entry:practitionerRoleOrg.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">PractitionerRole {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass}
+    <t xml:space="preserve">PractitionerRole {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole}
 </t>
   </si>
   <si>
@@ -1561,107 +1561,113 @@
     <t>Bundle.entry:practitionerRoleOrg.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:practitionerRolePro</t>
-  </si>
-  <si>
-    <t>practitionerRolePro</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PractitionerRole {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-professionalRole-rass}
+    <t>Bundle.entry:practitionerPro</t>
+  </si>
+  <si>
+    <t>practitionerPro</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practitioner {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner}
 </t>
   </si>
   <si>
-    <t>Bundle.entry:practitionerRolePro.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerRolePro.response.outcome</t>
+    <t>A person with a  formal responsibility in the provisioning of healthcare or related services | Prestataire de santé</t>
+  </si>
+  <si>
+    <t>A person who is directly or indirectly involved in the provisioning of healthcare | Un professionnel impliqué directement ou indirectement dans la prise en charge d'une personne.</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerPro.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:practitioner</t>
@@ -1686,16 +1692,6 @@
   </si>
   <si>
     <t>Bundle.entry:practitioner.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practitioner {http://interopsante.org/fhir/StructureDefinition/FrPractitioner}
-</t>
-  </si>
-  <si>
-    <t>A person with a  formal responsibility in the provisioning of healthcare or related services | Prestataire de santé</t>
-  </si>
-  <si>
-    <t>A person who is directly or indirectly involved in the provisioning of healthcare | Un professionnel impliqué directement ou indirectement dans la prise en charge d'une personne.</t>
   </si>
   <si>
     <t>Bundle.entry:practitioner.search</t>
@@ -2111,7 +2107,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="118.84375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -30145,10 +30141,10 @@
         <v>506</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>469</v>
+        <v>507</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>470</v>
+        <v>508</v>
       </c>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
@@ -30228,7 +30224,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>202</v>
@@ -30340,7 +30336,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>206</v>
@@ -30452,7 +30448,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>207</v>
@@ -30566,7 +30562,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>208</v>
@@ -30682,7 +30678,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>209</v>
@@ -30796,7 +30792,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>215</v>
@@ -30910,7 +30906,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>220</v>
@@ -31022,7 +31018,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>224</v>
@@ -31134,7 +31130,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>225</v>
@@ -31248,7 +31244,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>226</v>
@@ -31364,7 +31360,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>227</v>
@@ -31478,7 +31474,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>232</v>
@@ -31592,7 +31588,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>236</v>
@@ -31706,7 +31702,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>239</v>
@@ -31820,7 +31816,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>242</v>
@@ -31934,7 +31930,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>245</v>
@@ -32048,7 +32044,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>248</v>
@@ -32160,7 +32156,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>252</v>
@@ -32272,7 +32268,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>253</v>
@@ -32386,7 +32382,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>254</v>
@@ -32502,7 +32498,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>255</v>
@@ -32616,7 +32612,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>258</v>
@@ -32730,7 +32726,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>261</v>
@@ -32844,7 +32840,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>265</v>
@@ -32958,7 +32954,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>269</v>
@@ -33072,13 +33068,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>182</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D273" t="s" s="2">
         <v>76</v>
@@ -33186,7 +33182,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>187</v>
@@ -33298,7 +33294,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>188</v>
@@ -33412,7 +33408,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>189</v>
@@ -33528,7 +33524,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>190</v>
@@ -33640,7 +33636,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>193</v>
@@ -33754,7 +33750,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>197</v>
@@ -33765,7 +33761,7 @@
       </c>
       <c r="E279" s="2"/>
       <c r="F279" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G279" t="s" s="2">
         <v>86</v>
@@ -33777,16 +33773,16 @@
         <v>76</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>540</v>
+        <v>198</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>541</v>
+        <v>199</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>542</v>
+        <v>200</v>
       </c>
       <c r="N279" s="2"/>
       <c r="O279" s="2"/>
@@ -33849,13 +33845,13 @@
         <v>76</v>
       </c>
       <c r="AJ279" t="s" s="2">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>471</v>
+        <v>76</v>
       </c>
       <c r="AL279" t="s" s="2">
-        <v>472</v>
+        <v>201</v>
       </c>
       <c r="AM279" t="s" s="2">
         <v>76</v>
@@ -33866,7 +33862,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>202</v>
@@ -33978,7 +33974,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>206</v>
@@ -34090,7 +34086,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>207</v>
@@ -34204,7 +34200,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>208</v>
@@ -34320,7 +34316,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>209</v>
@@ -34434,7 +34430,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>215</v>
@@ -34548,7 +34544,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>220</v>
@@ -34660,7 +34656,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>224</v>
@@ -34772,7 +34768,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>225</v>
@@ -34886,7 +34882,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>226</v>
@@ -35002,7 +34998,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>227</v>
@@ -35099,7 +35095,7 @@
         <v>98</v>
       </c>
       <c r="AJ290" t="s" s="2">
-        <v>296</v>
+        <v>99</v>
       </c>
       <c r="AK290" t="s" s="2">
         <v>76</v>
@@ -35116,7 +35112,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>232</v>
@@ -35230,7 +35226,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>236</v>
@@ -35344,7 +35340,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>239</v>
@@ -35458,7 +35454,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>242</v>
@@ -35572,7 +35568,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>245</v>
@@ -35686,7 +35682,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>248</v>
@@ -35700,7 +35696,7 @@
         <v>77</v>
       </c>
       <c r="G296" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H296" t="s" s="2">
         <v>76</v>
@@ -35798,7 +35794,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>252</v>
@@ -35910,7 +35906,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>253</v>
@@ -36024,7 +36020,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>254</v>
@@ -36140,7 +36136,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>255</v>
@@ -36254,7 +36250,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>258</v>
@@ -36368,7 +36364,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>261</v>
@@ -36482,7 +36478,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>265</v>
@@ -36596,7 +36592,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>269</v>
@@ -36710,10 +36706,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -36736,19 +36732,19 @@
         <v>87</v>
       </c>
       <c r="K305" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L305" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="L305" t="s" s="2">
+      <c r="M305" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M305" t="s" s="2">
+      <c r="N305" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="N305" t="s" s="2">
+      <c r="O305" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="O305" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P305" t="s" s="2">
         <v>76</v>
@@ -36797,7 +36793,7 @@
         <v>76</v>
       </c>
       <c r="AF305" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG305" t="s" s="2">
         <v>77</v>

--- a/ig/nr-update/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/nr-update/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10972" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9825" uniqueCount="542">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T13:43:56+00:00</t>
+    <t>2024-02-07T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1452,6 +1452,9 @@
     <t>practitionerRoleOrg</t>
   </si>
   <si>
+    <t>Situation d'exercice du PS (PractitionerRole)</t>
+  </si>
+  <si>
     <t>Bundle.entry:practitionerRoleOrg.id</t>
   </si>
   <si>
@@ -1567,6 +1570,9 @@
     <t>practitionerPro</t>
   </si>
   <si>
+    <t>Exercice professionnel du PS (Practitioner)</t>
+  </si>
+  <si>
     <t>Bundle.entry:practitionerPro.id</t>
   </si>
   <si>
@@ -1668,105 +1674,6 @@
   </si>
   <si>
     <t>Bundle.entry:practitionerPro.response.outcome</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner</t>
-  </si>
-  <si>
-    <t>practitioner</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.resource</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.outcome</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -2088,7 +1995,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN305"/>
+  <dimension ref="A1:AN273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -25823,7 +25730,7 @@
         <v>148</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>183</v>
+        <v>462</v>
       </c>
       <c r="M209" t="s" s="2">
         <v>184</v>
@@ -25906,7 +25813,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>187</v>
@@ -26018,7 +25925,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>188</v>
@@ -26132,7 +26039,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>189</v>
@@ -26248,7 +26155,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>190</v>
@@ -26360,7 +26267,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>193</v>
@@ -26474,7 +26381,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>197</v>
@@ -26500,13 +26407,13 @@
         <v>76</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -26572,10 +26479,10 @@
         <v>284</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>76</v>
@@ -26586,7 +26493,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>202</v>
@@ -26698,7 +26605,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>206</v>
@@ -26810,7 +26717,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>207</v>
@@ -26924,7 +26831,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>208</v>
@@ -27040,7 +26947,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>209</v>
@@ -27154,7 +27061,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>215</v>
@@ -27268,7 +27175,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>220</v>
@@ -27380,7 +27287,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>224</v>
@@ -27492,7 +27399,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>225</v>
@@ -27606,7 +27513,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>226</v>
@@ -27722,7 +27629,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>227</v>
@@ -27836,7 +27743,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>232</v>
@@ -27950,7 +27857,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>236</v>
@@ -28064,7 +27971,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>239</v>
@@ -28178,7 +28085,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>242</v>
@@ -28292,7 +28199,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>245</v>
@@ -28406,7 +28313,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>248</v>
@@ -28518,7 +28425,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>252</v>
@@ -28630,7 +28537,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>253</v>
@@ -28744,7 +28651,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>254</v>
@@ -28860,7 +28767,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>255</v>
@@ -28974,7 +28881,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>258</v>
@@ -29088,7 +28995,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>261</v>
@@ -29202,7 +29109,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>265</v>
@@ -29316,7 +29223,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>269</v>
@@ -29430,13 +29337,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>182</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D241" t="s" s="2">
         <v>76</v>
@@ -29461,7 +29368,7 @@
         <v>148</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>183</v>
+        <v>501</v>
       </c>
       <c r="M241" t="s" s="2">
         <v>184</v>
@@ -29544,7 +29451,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>187</v>
@@ -29656,7 +29563,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>188</v>
@@ -29770,7 +29677,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>189</v>
@@ -29886,7 +29793,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>190</v>
@@ -29998,7 +29905,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>193</v>
@@ -30112,7 +30019,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>197</v>
@@ -30138,13 +30045,13 @@
         <v>76</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
@@ -30210,10 +30117,10 @@
         <v>284</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM247" t="s" s="2">
         <v>76</v>
@@ -30224,7 +30131,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>202</v>
@@ -30336,7 +30243,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>206</v>
@@ -30448,7 +30355,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>207</v>
@@ -30562,7 +30469,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>208</v>
@@ -30678,7 +30585,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>209</v>
@@ -30792,7 +30699,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>215</v>
@@ -30906,7 +30813,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>220</v>
@@ -31018,7 +30925,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>224</v>
@@ -31130,7 +31037,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>225</v>
@@ -31244,7 +31151,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>226</v>
@@ -31360,7 +31267,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>227</v>
@@ -31474,7 +31381,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>232</v>
@@ -31588,7 +31495,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>236</v>
@@ -31702,7 +31609,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>239</v>
@@ -31816,7 +31723,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>242</v>
@@ -31930,7 +31837,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>245</v>
@@ -32044,7 +31951,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>248</v>
@@ -32156,7 +32063,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>252</v>
@@ -32268,7 +32175,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>253</v>
@@ -32382,7 +32289,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>254</v>
@@ -32498,7 +32405,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>255</v>
@@ -32612,7 +32519,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>258</v>
@@ -32726,7 +32633,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>261</v>
@@ -32840,7 +32747,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>265</v>
@@ -32954,7 +32861,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>269</v>
@@ -33068,14 +32975,12 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C273" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
         <v>76</v>
       </c>
@@ -33084,7 +32989,7 @@
         <v>77</v>
       </c>
       <c r="G273" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H273" t="s" s="2">
         <v>76</v>
@@ -33096,16 +33001,20 @@
         <v>87</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>148</v>
+        <v>537</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>183</v>
+        <v>538</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N273" s="2"/>
-      <c r="O273" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="N273" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O273" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="P273" t="s" s="2">
         <v>76</v>
       </c>
@@ -33153,3670 +33062,30 @@
         <v>76</v>
       </c>
       <c r="AF273" t="s" s="2">
-        <v>182</v>
+        <v>536</v>
       </c>
       <c r="AG273" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH273" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI273" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ273" t="s" s="2">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="AK273" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL273" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AM273" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN273" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B274" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C274" s="2"/>
-      <c r="D274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E274" s="2"/>
-      <c r="F274" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G274" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K274" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L274" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M274" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N274" s="2"/>
-      <c r="O274" s="2"/>
-      <c r="P274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q274" s="2"/>
-      <c r="R274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF274" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AG274" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH274" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL274" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM274" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN274" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="B275" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C275" s="2"/>
-      <c r="D275" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="E275" s="2"/>
-      <c r="F275" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G275" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H275" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I275" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J275" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K275" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L275" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M275" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N275" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O275" s="2"/>
-      <c r="P275" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q275" s="2"/>
-      <c r="R275" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S275" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T275" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U275" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V275" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W275" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X275" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y275" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z275" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA275" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB275" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AC275" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AD275" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE275" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AF275" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AG275" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH275" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI275" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ275" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK275" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL275" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM275" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN275" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="B276" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C276" s="2"/>
-      <c r="D276" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="E276" s="2"/>
-      <c r="F276" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G276" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I276" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J276" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K276" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L276" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M276" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N276" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O276" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="P276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q276" s="2"/>
-      <c r="R276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF276" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AG276" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH276" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI276" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ276" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL276" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN276" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="B277" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C277" s="2"/>
-      <c r="D277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E277" s="2"/>
-      <c r="F277" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G277" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J277" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K277" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L277" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M277" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N277" s="2"/>
-      <c r="O277" s="2"/>
-      <c r="P277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q277" s="2"/>
-      <c r="R277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF277" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AG277" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH277" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN277" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B278" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C278" s="2"/>
-      <c r="D278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E278" s="2"/>
-      <c r="F278" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G278" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J278" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K278" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L278" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M278" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N278" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O278" s="2"/>
-      <c r="P278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q278" s="2"/>
-      <c r="R278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF278" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AG278" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH278" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI278" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ278" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL278" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN278" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="B279" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C279" s="2"/>
-      <c r="D279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E279" s="2"/>
-      <c r="F279" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G279" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J279" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K279" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L279" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M279" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N279" s="2"/>
-      <c r="O279" s="2"/>
-      <c r="P279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q279" s="2"/>
-      <c r="R279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF279" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AG279" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH279" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL279" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AM279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN279" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B280" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C280" s="2"/>
-      <c r="D280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E280" s="2"/>
-      <c r="F280" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G280" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J280" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K280" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L280" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M280" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N280" s="2"/>
-      <c r="O280" s="2"/>
-      <c r="P280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q280" s="2"/>
-      <c r="R280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF280" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AG280" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH280" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI280" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AJ280" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL280" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM280" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN280" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B281" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C281" s="2"/>
-      <c r="D281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E281" s="2"/>
-      <c r="F281" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G281" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K281" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L281" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M281" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N281" s="2"/>
-      <c r="O281" s="2"/>
-      <c r="P281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q281" s="2"/>
-      <c r="R281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF281" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AG281" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH281" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL281" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN281" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="B282" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C282" s="2"/>
-      <c r="D282" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="E282" s="2"/>
-      <c r="F282" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G282" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H282" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I282" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J282" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K282" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L282" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M282" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N282" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O282" s="2"/>
-      <c r="P282" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q282" s="2"/>
-      <c r="R282" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S282" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T282" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U282" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V282" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W282" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X282" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y282" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z282" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA282" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB282" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AC282" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AD282" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE282" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AF282" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AG282" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH282" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI282" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ282" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK282" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL282" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM282" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN282" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="B283" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C283" s="2"/>
-      <c r="D283" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="E283" s="2"/>
-      <c r="F283" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G283" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I283" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J283" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K283" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L283" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M283" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N283" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O283" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="P283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q283" s="2"/>
-      <c r="R283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF283" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AG283" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH283" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI283" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ283" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL283" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN283" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="B284" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C284" s="2"/>
-      <c r="D284" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E284" s="2"/>
-      <c r="F284" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G284" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H284" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I284" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J284" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K284" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L284" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M284" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N284" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O284" s="2"/>
-      <c r="P284" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q284" s="2"/>
-      <c r="R284" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S284" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T284" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U284" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V284" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W284" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X284" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="Y284" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="Z284" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AA284" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB284" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC284" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD284" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE284" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF284" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AG284" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH284" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI284" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ284" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK284" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL284" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM284" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN284" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B285" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C285" s="2"/>
-      <c r="D285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E285" s="2"/>
-      <c r="F285" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G285" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J285" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K285" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="L285" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M285" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N285" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O285" s="2"/>
-      <c r="P285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q285" s="2"/>
-      <c r="R285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF285" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AG285" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH285" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI285" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ285" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL285" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM285" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN285" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="B286" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C286" s="2"/>
-      <c r="D286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E286" s="2"/>
-      <c r="F286" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G286" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J286" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K286" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L286" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M286" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N286" s="2"/>
-      <c r="O286" s="2"/>
-      <c r="P286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q286" s="2"/>
-      <c r="R286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF286" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AG286" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH286" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI286" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AJ286" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL286" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN286" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="B287" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="C287" s="2"/>
-      <c r="D287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E287" s="2"/>
-      <c r="F287" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G287" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K287" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L287" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M287" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N287" s="2"/>
-      <c r="O287" s="2"/>
-      <c r="P287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q287" s="2"/>
-      <c r="R287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF287" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AG287" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH287" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL287" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM287" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN287" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="B288" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="C288" s="2"/>
-      <c r="D288" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="E288" s="2"/>
-      <c r="F288" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G288" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H288" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I288" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J288" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K288" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L288" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M288" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N288" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O288" s="2"/>
-      <c r="P288" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q288" s="2"/>
-      <c r="R288" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S288" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T288" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U288" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V288" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W288" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X288" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y288" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z288" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA288" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB288" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AC288" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AD288" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE288" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AF288" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AG288" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH288" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI288" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ288" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK288" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL288" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM288" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN288" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="B289" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C289" s="2"/>
-      <c r="D289" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="E289" s="2"/>
-      <c r="F289" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G289" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H289" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I289" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J289" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K289" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L289" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M289" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N289" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O289" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="P289" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q289" s="2"/>
-      <c r="R289" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S289" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T289" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U289" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V289" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W289" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X289" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y289" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z289" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA289" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB289" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC289" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD289" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE289" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF289" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AG289" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH289" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI289" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ289" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK289" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL289" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM289" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN289" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="B290" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C290" s="2"/>
-      <c r="D290" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E290" s="2"/>
-      <c r="F290" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G290" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H290" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I290" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J290" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K290" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L290" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M290" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N290" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O290" s="2"/>
-      <c r="P290" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q290" s="2"/>
-      <c r="R290" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S290" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T290" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U290" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V290" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W290" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X290" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="Y290" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="Z290" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AA290" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB290" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC290" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD290" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE290" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF290" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AG290" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH290" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI290" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ290" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK290" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL290" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM290" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN290" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="B291" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C291" s="2"/>
-      <c r="D291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E291" s="2"/>
-      <c r="F291" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G291" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J291" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K291" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L291" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M291" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N291" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O291" s="2"/>
-      <c r="P291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q291" s="2"/>
-      <c r="R291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF291" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AG291" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH291" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI291" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ291" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL291" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM291" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN291" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B292" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C292" s="2"/>
-      <c r="D292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E292" s="2"/>
-      <c r="F292" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G292" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J292" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K292" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L292" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M292" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N292" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O292" s="2"/>
-      <c r="P292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q292" s="2"/>
-      <c r="R292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF292" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AG292" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH292" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI292" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ292" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL292" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM292" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN292" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B293" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C293" s="2"/>
-      <c r="D293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E293" s="2"/>
-      <c r="F293" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G293" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J293" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K293" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L293" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M293" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N293" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O293" s="2"/>
-      <c r="P293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q293" s="2"/>
-      <c r="R293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF293" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AG293" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH293" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI293" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ293" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL293" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM293" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN293" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="B294" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C294" s="2"/>
-      <c r="D294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E294" s="2"/>
-      <c r="F294" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G294" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J294" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K294" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L294" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M294" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N294" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O294" s="2"/>
-      <c r="P294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q294" s="2"/>
-      <c r="R294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF294" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AG294" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH294" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI294" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ294" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL294" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM294" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN294" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B295" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C295" s="2"/>
-      <c r="D295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E295" s="2"/>
-      <c r="F295" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G295" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J295" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K295" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L295" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M295" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N295" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O295" s="2"/>
-      <c r="P295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q295" s="2"/>
-      <c r="R295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF295" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AG295" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH295" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI295" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ295" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL295" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM295" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN295" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B296" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C296" s="2"/>
-      <c r="D296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E296" s="2"/>
-      <c r="F296" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G296" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J296" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K296" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L296" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M296" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N296" s="2"/>
-      <c r="O296" s="2"/>
-      <c r="P296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q296" s="2"/>
-      <c r="R296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF296" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AG296" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH296" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI296" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AJ296" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL296" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN296" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B297" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C297" s="2"/>
-      <c r="D297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E297" s="2"/>
-      <c r="F297" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G297" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K297" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L297" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M297" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N297" s="2"/>
-      <c r="O297" s="2"/>
-      <c r="P297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q297" s="2"/>
-      <c r="R297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF297" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AG297" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH297" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL297" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM297" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN297" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B298" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="C298" s="2"/>
-      <c r="D298" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="E298" s="2"/>
-      <c r="F298" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G298" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K298" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L298" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M298" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N298" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O298" s="2"/>
-      <c r="P298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q298" s="2"/>
-      <c r="R298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB298" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AC298" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AD298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE298" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AF298" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AG298" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH298" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI298" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ298" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL298" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN298" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B299" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C299" s="2"/>
-      <c r="D299" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="E299" s="2"/>
-      <c r="F299" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G299" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H299" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I299" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J299" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K299" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L299" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M299" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N299" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O299" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="P299" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q299" s="2"/>
-      <c r="R299" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S299" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T299" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U299" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V299" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W299" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X299" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y299" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z299" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA299" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB299" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC299" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD299" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE299" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF299" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AG299" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH299" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI299" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ299" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK299" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL299" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM299" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN299" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B300" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C300" s="2"/>
-      <c r="D300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E300" s="2"/>
-      <c r="F300" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G300" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J300" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K300" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L300" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M300" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N300" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O300" s="2"/>
-      <c r="P300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q300" s="2"/>
-      <c r="R300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF300" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AG300" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH300" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI300" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ300" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL300" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM300" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN300" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B301" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C301" s="2"/>
-      <c r="D301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E301" s="2"/>
-      <c r="F301" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G301" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J301" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K301" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L301" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M301" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N301" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O301" s="2"/>
-      <c r="P301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q301" s="2"/>
-      <c r="R301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF301" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AG301" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH301" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI301" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ301" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL301" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM301" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN301" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="B302" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C302" s="2"/>
-      <c r="D302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E302" s="2"/>
-      <c r="F302" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G302" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J302" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K302" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L302" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M302" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N302" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O302" s="2"/>
-      <c r="P302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q302" s="2"/>
-      <c r="R302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF302" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AG302" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH302" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI302" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ302" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL302" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM302" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN302" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="B303" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="C303" s="2"/>
-      <c r="D303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E303" s="2"/>
-      <c r="F303" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G303" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J303" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K303" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L303" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M303" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N303" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O303" s="2"/>
-      <c r="P303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q303" s="2"/>
-      <c r="R303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF303" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AG303" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH303" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI303" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ303" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL303" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM303" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN303" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="B304" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C304" s="2"/>
-      <c r="D304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E304" s="2"/>
-      <c r="F304" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G304" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J304" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K304" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L304" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M304" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N304" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O304" s="2"/>
-      <c r="P304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q304" s="2"/>
-      <c r="R304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF304" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AG304" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH304" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL304" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AM304" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN304" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="B305" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="C305" s="2"/>
-      <c r="D305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E305" s="2"/>
-      <c r="F305" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G305" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J305" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K305" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="L305" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M305" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N305" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O305" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="P305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q305" s="2"/>
-      <c r="R305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF305" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AG305" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH305" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI305" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ305" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL305" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM305" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN305" t="s" s="2">
         <v>76</v>
       </c>
     </row>
